--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,20 +39,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +82,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -132,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -145,18 +143,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -219,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,10 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,7 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -462,17 +455,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F17:F18"/>
+      <selection activeCell="E4" sqref="E4:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -480,417 +473,298 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="54" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43281</v>
+        <v>43428</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>181</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>1570</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>438</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43337</v>
+        <v>43609</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>584</v>
+        <v>1999</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>403</v>
+        <f>C4-C2</f>
+        <v>429</v>
       </c>
       <c r="E4" s="6">
-        <v>4.29</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>1728.8700000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>1960.5300000000002</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(F4,F5)</f>
+        <v>2242.5500000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2242.5500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>95</v>
+        <v>556</v>
       </c>
       <c r="D5" s="3">
         <f>C5-C3</f>
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E5" s="6">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>169.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>282.02000000000004</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43379</v>
+        <v>43679</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>924</v>
+        <v>2443</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>340</v>
+        <f>C6-C4</f>
+        <v>444</v>
       </c>
       <c r="E6" s="6">
-        <v>4.29</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1458.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*E6</f>
+        <v>1993.5600000000002</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(F6,F7)</f>
+        <v>2285.1600000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2315.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>295</v>
+        <v>676</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>C7-C5</f>
+        <v>120</v>
       </c>
       <c r="E7" s="6">
-        <v>2.17</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D7*E7</f>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
-        <v>43428</v>
+        <v>43733</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>1570</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>646</v>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2459.65</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="2">
+        <v>2459.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>438</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>143</v>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>336.05</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
-        <v>43609</v>
+        <v>43781</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>1999</v>
+        <v>3079</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
-        <v>429</v>
-      </c>
-      <c r="E10" s="10">
-        <v>4.57</v>
+        <f>C10-C6</f>
+        <v>636</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>1960.5300000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f>D10*E10</f>
+        <v>2855.6400000000003</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>3375.6600000000003</v>
+      </c>
+      <c r="H10" s="2">
+        <v>958.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>556</v>
+        <v>890</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
-        <v>118</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.39</v>
+        <f>C11-C7</f>
+        <v>214</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>282.02000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43679</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2443</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C10</f>
-        <v>444</v>
-      </c>
-      <c r="E12" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>1993.5600000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>676</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C11</f>
-        <v>120</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>291.60000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
-        <v>30.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43733</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2459.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43781</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3079</v>
-      </c>
-      <c r="D17" s="3">
-        <f>C17-C12</f>
-        <v>636</v>
-      </c>
-      <c r="E17" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>2855.6400000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>890</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C13</f>
-        <v>214</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
+        <f>D11*E11</f>
         <v>520.02</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM(G2:G11)</f>
+        <v>7903.3700000000008</v>
+      </c>
+      <c r="H12" s="2">
+        <f>SUM(H2:H11)</f>
+        <v>7976.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <f>SUM(H12,-G12)</f>
+        <v>73.039999999999054</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -900,12 +774,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -914,12 +788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -60,11 +60,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +246,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -455,17 +457,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -480,7 +482,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -506,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43428</v>
       </c>
@@ -522,7 +524,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -538,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43609</v>
       </c>
@@ -567,7 +569,7 @@
         <v>2242.5500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -589,7 +591,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43679</v>
       </c>
@@ -618,7 +620,7 @@
         <v>2315.88</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -640,7 +642,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43733</v>
       </c>
@@ -664,7 +666,7 @@
         <v>2459.65</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -682,7 +684,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43781</v>
       </c>
@@ -711,7 +713,7 @@
         <v>958.33</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -733,37 +735,88 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43979</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3792</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C10</f>
+        <v>713</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>3201.3700000000003</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>3536.7100000000005</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3588.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C11</f>
+        <v>138</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>335.34000000000003</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="2">
-        <f>SUM(G2:G11)</f>
-        <v>7903.3700000000008</v>
-      </c>
-      <c r="H12" s="2">
-        <f>SUM(H2:H11)</f>
-        <v>7976.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="G14" s="2">
+        <f>SUM(G2:G13)</f>
+        <v>11440.080000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <f>SUM(H2:H13)</f>
+        <v>11564.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <f>SUM(H12,-G12)</f>
-        <v>73.039999999999054</v>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <f>SUM(H14,-G14)</f>
+        <v>124.55999999999767</v>
       </c>
     </row>
   </sheetData>
@@ -774,12 +827,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -788,12 +841,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -787,36 +787,87 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4">
+        <v>44019</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4310</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C12</f>
+        <v>518</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14*E14</f>
+        <v>2325.8200000000002</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>2653.8700000000003</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2689.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1163</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C13</f>
+        <v>135</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>328.05</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2">
-        <f>SUM(G2:G13)</f>
-        <v>11440.080000000002</v>
-      </c>
-      <c r="H14" s="2">
-        <f>SUM(H2:H13)</f>
-        <v>11564.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="G16" s="2">
+        <f>SUM(G2:G15)</f>
+        <v>14093.950000000003</v>
+      </c>
+      <c r="H16" s="2">
+        <f>SUM(H2:H15)</f>
+        <v>14254.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <f>SUM(H14,-G14)</f>
-        <v>124.55999999999767</v>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <f>SUM(H16,-G16)</f>
+        <v>160.59999999999673</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" ref="F10:F15" si="1">D10*E10</f>
         <v>2855.6400000000003</v>
       </c>
       <c r="G10" s="9">
@@ -729,7 +729,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="1"/>
         <v>520.02</v>
       </c>
       <c r="G11" s="2"/>
@@ -753,7 +753,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
+        <f t="shared" si="1"/>
         <v>3201.3700000000003</v>
       </c>
       <c r="G12" s="9">
@@ -780,7 +780,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="1"/>
         <v>335.34000000000003</v>
       </c>
       <c r="G13" s="2"/>
@@ -804,7 +804,7 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*E14</f>
+        <f t="shared" si="1"/>
         <v>2325.8200000000002</v>
       </c>
       <c r="G14" s="9">
@@ -831,42 +831,93 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*E15</f>
+        <f t="shared" si="1"/>
         <v>328.05</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>44092</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4661</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C14</f>
+        <v>351</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="2">D16*E16</f>
+        <v>1653.21</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>1913.31</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1913.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1265</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C15</f>
+        <v>102</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G18" s="2">
         <f>SUM(G2:G15)</f>
         <v>14093.950000000003</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
         <f>SUM(H2:H15)</f>
         <v>14254.55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <f>SUM(H18,-G18)</f>
         <v>160.59999999999673</v>
       </c>
     </row>

--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>3792</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C10</f>
+        <f t="shared" ref="D12:D19" si="2">C12-C10</f>
         <v>713</v>
       </c>
       <c r="E12" s="6">
@@ -773,7 +773,7 @@
         <v>1028</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-C11</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="E13" s="6">
@@ -797,7 +797,7 @@
         <v>4310</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C12</f>
+        <f t="shared" si="2"/>
         <v>518</v>
       </c>
       <c r="E14" s="6">
@@ -824,7 +824,7 @@
         <v>1163</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-C13</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="E15" s="6">
@@ -848,14 +848,14 @@
         <v>4661</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-C14</f>
+        <f t="shared" si="2"/>
         <v>351</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:F17" si="2">D16*E16</f>
+        <f t="shared" ref="F16:F17" si="3">D16*E16</f>
         <v>1653.21</v>
       </c>
       <c r="G16" s="9">
@@ -875,49 +875,100 @@
         <v>1265</v>
       </c>
       <c r="D17" s="3">
-        <f>C17-C15</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="E17" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260.09999999999997</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>44172</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5221</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="4">D18*E18</f>
+        <v>2637.6</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>3147.6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3147.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1465</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="4"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G20" s="2">
         <f>SUM(G2:G15)</f>
         <v>14093.950000000003</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H20" s="2">
         <f>SUM(H2:H15)</f>
         <v>14254.55</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <f>SUM(H20,-G20)</f>
         <v>160.59999999999673</v>
       </c>
     </row>

--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -940,35 +940,86 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5969</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="5">C20-C18</f>
+        <v>748</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="6">D20*E20</f>
+        <v>3710.08</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>4104.04</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4104.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1612</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="6"/>
+        <v>393.96000000000004</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G22" s="2">
         <f>SUM(G2:G15)</f>
         <v>14093.950000000003</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <f>SUM(H2:H15)</f>
         <v>14254.55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <f>SUM(H22,-G22)</f>
         <v>160.59999999999673</v>
       </c>
     </row>

--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
   <si>
     <t>Т2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
@@ -64,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +80,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -130,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -151,9 +141,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -461,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -484,90 +471,96 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43428</v>
+        <v>44382</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>1570</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>5969</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2-C4</f>
+        <v>748</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>3710.08</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM(F2,F3)</f>
+        <v>4104.04</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4104.04</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>438</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+        <v>1612</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3-C5</f>
+        <v>147</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>393.96000000000004</v>
+      </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43609</v>
+        <v>44172</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1999</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>429</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
-        <v>1960.5300000000002</v>
-      </c>
-      <c r="G4" s="9">
-        <f>SUM(F4,F5)</f>
-        <v>2242.5500000000002</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2242.5500000000002</v>
-      </c>
+        <v>5221</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -575,452 +568,45 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>556</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>118</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>282.02000000000004</v>
-      </c>
+        <v>1465</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43679</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2443</v>
-      </c>
-      <c r="D6" s="3">
-        <f>C6-C4</f>
-        <v>444</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>1993.5600000000002</v>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <f>SUM(F6,F7)</f>
-        <v>2285.1600000000003</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2315.88</v>
+        <f>SUM(G2:G5)</f>
+        <v>4104.04</v>
+      </c>
+      <c r="H6" s="9">
+        <f>SUM(H2:H5)</f>
+        <v>4104.04</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>676</v>
-      </c>
-      <c r="D7" s="3">
-        <f>C7-C5</f>
-        <v>120</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>291.60000000000002</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43733</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="H7" s="2">
+        <f>SUM(H6,-G6)</f>
         <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2459.65</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="2">
-        <v>2459.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43781</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3079</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C6</f>
-        <v>636</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F15" si="1">D10*E10</f>
-        <v>2855.6400000000003</v>
-      </c>
-      <c r="G10" s="9">
-        <f>SUM(F10,F11)</f>
-        <v>3375.6600000000003</v>
-      </c>
-      <c r="H10" s="2">
-        <v>958.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>890</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C7</f>
-        <v>214</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>520.02</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43979</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3792</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="2">C12-C10</f>
-        <v>713</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>3201.3700000000003</v>
-      </c>
-      <c r="G12" s="9">
-        <f>SUM(F12,F13)</f>
-        <v>3536.7100000000005</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3588.23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1028</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>335.34000000000003</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44019</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4310</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>518</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>2325.8200000000002</v>
-      </c>
-      <c r="G14" s="9">
-        <f>SUM(F14,F15)</f>
-        <v>2653.8700000000003</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2689.91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1163</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>328.05</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44092</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4661</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>351</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" ref="F16:F17" si="3">D16*E16</f>
-        <v>1653.21</v>
-      </c>
-      <c r="G16" s="9">
-        <f>SUM(F16,F17)</f>
-        <v>1913.31</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1913.31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1265</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="3"/>
-        <v>260.09999999999997</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44172</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5221</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="2"/>
-        <v>560</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F19" si="4">D18*E18</f>
-        <v>2637.6</v>
-      </c>
-      <c r="G18" s="9">
-        <f>SUM(F18,F19)</f>
-        <v>3147.6</v>
-      </c>
-      <c r="H18" s="2">
-        <v>3147.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1465</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="4"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44382</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5969</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="5">C20-C18</f>
-        <v>748</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.96</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:F21" si="6">D20*E20</f>
-        <v>3710.08</v>
-      </c>
-      <c r="G20" s="9">
-        <f>SUM(F20,F21)</f>
-        <v>4104.04</v>
-      </c>
-      <c r="H20" s="2">
-        <v>4104.04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1612</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="5"/>
-        <v>147</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2.68</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="6"/>
-        <v>393.96000000000004</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="2">
-        <f>SUM(G2:G15)</f>
-        <v>14093.950000000003</v>
-      </c>
-      <c r="H22" s="2">
-        <f>SUM(H2:H15)</f>
-        <v>14254.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <f>SUM(H22,-G22)</f>
-        <v>160.59999999999673</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -497,31 +497,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44382</v>
+        <v>44491</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>5969</v>
+        <v>7129</v>
       </c>
       <c r="D2" s="3">
         <f>C2-C4</f>
-        <v>748</v>
+        <v>1160</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>3710.08</v>
+        <v>5753.6</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>4104.04</v>
+        <v>6753.2400000000007</v>
       </c>
       <c r="H2" s="2">
-        <v>4104.04</v>
+        <v>6753.24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,37 +530,50 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1612</v>
+        <v>1985</v>
       </c>
       <c r="D3" s="3">
         <f>C3-C5</f>
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="E3" s="6">
         <v>2.68</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>393.96000000000004</v>
+        <v>999.6400000000001</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44172</v>
+        <v>44382</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5221</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2"/>
+        <v>5969</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4-C6</f>
+        <v>748</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>3710.08</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(F4,F5)</f>
+        <v>4104.04</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4104.04</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -568,44 +581,82 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1465</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>1612</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5-C7</f>
+        <v>147</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>393.96000000000004</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="4">
+        <v>44172</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5221</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="9">
-        <f>SUM(G2:G5)</f>
-        <v>4104.04</v>
-      </c>
-      <c r="H6" s="9">
-        <f>SUM(H2:H5)</f>
-        <v>4104.04</v>
-      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1465</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(G4:G7)</f>
+        <v>4104.04</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM(H4:H7)</f>
+        <v>4104.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <f>SUM(H6,-G6)</f>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/218ee.xlsx
+++ b/sputnik/personal/ee/218ee.xlsx
@@ -85,12 +85,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -141,6 +147,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -451,7 +460,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -496,7 +505,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>44491</v>
       </c>
       <c r="B2" s="3" t="s">
